--- a/Results/ADF Test futures.xlsx
+++ b/Results/ADF Test futures.xlsx
@@ -1,31 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lione\OneDrive\Dokumente\GitHub\AQM\Results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D369A18E-F1AC-465B-9BB2-575BB503270C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -77,11 +61,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="174" formatCode="0.000000000000"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,31 +114,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -199,7 +171,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,27 +203,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,24 +237,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -476,20 +412,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -500,125 +430,125 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
-        <v>-8.5547704463854934</v>
-      </c>
-      <c r="C2" s="2">
-        <v>9.0212914373402268E-14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>-8.554770446385493</v>
+      </c>
+      <c r="C2">
+        <v>9.021291437340227E-14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>-7.1353088761447143</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3.4333028743713549E-10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>-7.135308876144714</v>
+      </c>
+      <c r="C3">
+        <v>3.433302874371355E-10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
-        <v>-11.210489799976781</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4">
+        <v>-11.21048979997678</v>
+      </c>
+      <c r="C4">
         <v>2.13160458050297E-20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
-        <v>-5.9871741361708128</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.780758622899661E-7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>-5.987174136170813</v>
+      </c>
+      <c r="C5">
+        <v>1.780758622899661E-07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>-2.063893964762662</v>
       </c>
-      <c r="C6" s="2">
-        <v>0.25927857327468451</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0.2592785732746845</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>-11.34437543403461</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>1.035742785550555E-20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>-13.4880576150944</v>
       </c>
-      <c r="C8" s="2">
-        <v>3.1455501247958682E-25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>3.145550124795868E-25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>-12.63866590656902</v>
       </c>
-      <c r="C9" s="2">
-        <v>1.4510540539666951E-23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>1.451054053966695E-23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
-        <v>-12.569449491078389</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10">
+        <v>-12.56944949107839</v>
+      </c>
+      <c r="C10">
         <v>2.019237691307453E-23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>-10.84655156674307</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>1.567093683207911E-19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>-10.04993204049685</v>
       </c>
-      <c r="C12" s="2">
-        <v>1.4213881548960381E-17</v>
+      <c r="C12">
+        <v>1.421388154896038E-17</v>
       </c>
     </row>
   </sheetData>
